--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="15">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Hi, John Smith</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>Hi, DVhbCERv IlqEZZxz</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="15">
   <si>
     <t xml:space="preserve">Username </t>
   </si>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="15">
   <si>
     <t xml:space="preserve">Username </t>
   </si>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="16">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Hi, DVhbCERv IlqEZZxz</t>
+  </si>
+  <si>
+    <t>Hi, Johny Smith</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
     </row>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="16">
   <si>
     <t xml:space="preserve">Username </t>
   </si>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="16">
   <si>
     <t xml:space="preserve">Username </t>
   </si>

--- a/target/classes/TestData/Login.xlsx
+++ b/target/classes/TestData/Login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="16">
   <si>
     <t xml:space="preserve">Username </t>
   </si>
